--- a/planilhas/cursos.xlsx
+++ b/planilhas/cursos.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="30">
   <si>
     <t>NomeCompleto</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>Enviado na data 09/11/2025</t>
+  </si>
+  <si>
+    <t>Enviado na data 17/11/2025</t>
   </si>
 </sst>
 </file>
@@ -454,7 +457,10 @@
         <v>45962</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
@@ -476,6 +482,9 @@
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G3" t="s" s="0">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -496,6 +505,9 @@
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G4" t="s" s="0">
+        <v>29</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -516,6 +528,9 @@
       <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G5" t="s" s="0">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -536,6 +551,9 @@
       <c r="F6" t="s" s="0">
         <v>10</v>
       </c>
+      <c r="G6" t="s" s="0">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s" s="0">
@@ -555,6 +573,9 @@
       </c>
       <c r="F7" t="s" s="0">
         <v>24</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
